--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269669.896078248</v>
+        <v>1266142.571633738</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28006371.16448381</v>
+        <v>28006371.1644838</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5722104.44473735</v>
+        <v>5722104.444737349</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4980222.039159635</v>
+        <v>4980222.039159636</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>25.45146770281765</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.5939276538721</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7296254640092</v>
+        <v>154.6153359993187</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I13" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>237.2110085144546</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>88.52961866646118</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3678052820416</v>
       </c>
       <c r="H14" t="n">
-        <v>99.74223757402518</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U14" t="n">
         <v>255.6171309891995</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>238.1566193323763</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>152.8937785656461</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7296254640092</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>169.5418091726869</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>316.7594927768024</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T17" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>23.2047421561151</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>130.3540151177232</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>153.3630351679486</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>192.6642972079581</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3678052820416</v>
+        <v>5.922666789541935</v>
       </c>
       <c r="H20" t="n">
         <v>275.145931902475</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.6302912059128</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.6806676375622</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>111.4157647130695</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.3630351679486</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>242.1003253581619</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>303.8739200227452</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2563,16 +2563,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.92032458155304</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2770796227834</v>
+        <v>33.31771037409632</v>
       </c>
       <c r="U26" t="n">
         <v>255.6171309891995</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2800,16 +2800,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H29" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T29" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>244.4815568062668</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>370.8957666471163</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.3678052820416</v>
       </c>
       <c r="H32" t="n">
-        <v>275.145931902475</v>
+        <v>171.0147823969412</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>255.6171309891995</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.2865297478783</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>293.4970879140013</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>263.962352661741</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.62262779682392</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I37" t="n">
         <v>72.76475354193595</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.3630351679486</v>
       </c>
       <c r="T37" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3354344940787</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>124.0162185354955</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>88.66439517759875</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3678052820416</v>
+        <v>258.0697420859464</v>
       </c>
       <c r="H38" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>67.69076687334697</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>105.7793937805659</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S40" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.2110085144546</v>
@@ -3720,7 +3720,7 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>157.2564944388663</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>296.9417529960464</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.79853678820542</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I43" t="n">
         <v>72.76475354193595</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.3630351679486</v>
@@ -3957,16 +3957,16 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>139.9353571833101</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>251.9204823765578</v>
       </c>
       <c r="G44" t="n">
-        <v>371.5094788537985</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>152.4457771291515</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H46" t="n">
         <v>134.669673945858</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>153.3630351679486</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>35.51324888182123</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>893.2894682401409</v>
+        <v>894.1422262816834</v>
       </c>
       <c r="C11" t="n">
-        <v>466.3887382534409</v>
+        <v>467.2414962949836</v>
       </c>
       <c r="D11" t="n">
-        <v>466.3887382534409</v>
+        <v>467.2414962949836</v>
       </c>
       <c r="E11" t="n">
-        <v>466.3887382534409</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="F11" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G11" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H11" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I11" t="n">
         <v>80.64296560125331</v>
       </c>
       <c r="J11" t="n">
-        <v>213.5062128414249</v>
+        <v>213.5062128414247</v>
       </c>
       <c r="K11" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255854</v>
       </c>
       <c r="L11" t="n">
-        <v>684.1393418771319</v>
+        <v>684.1393418771318</v>
       </c>
       <c r="M11" t="n">
         <v>982.2137160547604</v>
@@ -5062,10 +5062,10 @@
         <v>1807.677227494528</v>
       </c>
       <c r="Q11" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R11" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S11" t="n">
         <v>2003.235536064805</v>
@@ -5074,19 +5074,19 @@
         <v>2003.235536064805</v>
       </c>
       <c r="U11" t="n">
-        <v>2003.235536064805</v>
+        <v>1745.036413853492</v>
       </c>
       <c r="V11" t="n">
-        <v>2003.235536064805</v>
+        <v>1745.036413853492</v>
       </c>
       <c r="W11" t="n">
-        <v>2003.235536064805</v>
+        <v>1745.036413853492</v>
       </c>
       <c r="X11" t="n">
-        <v>1591.515537232552</v>
+        <v>1719.327860618323</v>
       </c>
       <c r="Y11" t="n">
-        <v>1313.137832531671</v>
+        <v>1313.990590573213</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H12" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I12" t="n">
-        <v>60.41309749025406</v>
+        <v>60.41309749025407</v>
       </c>
       <c r="J12" t="n">
         <v>136.4876372116241</v>
       </c>
       <c r="K12" t="n">
-        <v>319.4022833204329</v>
+        <v>279.2113015876566</v>
       </c>
       <c r="L12" t="n">
-        <v>518.8392762058731</v>
+        <v>478.6482944730969</v>
       </c>
       <c r="M12" t="n">
-        <v>1029.488162186032</v>
+        <v>714.5273494131625</v>
       </c>
       <c r="N12" t="n">
-        <v>1273.951638629136</v>
+        <v>958.9908258562668</v>
       </c>
       <c r="O12" t="n">
-        <v>1493.97724303802</v>
+        <v>1179.016430265151</v>
       </c>
       <c r="P12" t="n">
-        <v>1667.425565111552</v>
+        <v>1352.464752338683</v>
       </c>
       <c r="Q12" t="n">
         <v>1775.259305635551</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.1903107536275</v>
+        <v>671.6524061637754</v>
       </c>
       <c r="C13" t="n">
-        <v>618.2177476325435</v>
+        <v>499.6798430426913</v>
       </c>
       <c r="D13" t="n">
-        <v>618.2177476325435</v>
+        <v>499.6798430426913</v>
       </c>
       <c r="E13" t="n">
-        <v>452.009541785397</v>
+        <v>333.4716371955449</v>
       </c>
       <c r="F13" t="n">
-        <v>280.1477675599574</v>
+        <v>333.4716371955449</v>
       </c>
       <c r="G13" t="n">
-        <v>114.7643074953017</v>
+        <v>177.294530125526</v>
       </c>
       <c r="H13" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I13" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3623327260371</v>
+        <v>159.284049374258</v>
       </c>
       <c r="K13" t="n">
-        <v>407.3563020633862</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L13" t="n">
-        <v>889.3283294941721</v>
+        <v>816.6380100446773</v>
       </c>
       <c r="M13" t="n">
-        <v>1399.977215474331</v>
+        <v>1327.286896024836</v>
       </c>
       <c r="N13" t="n">
         <v>1835.789156099443</v>
@@ -5220,10 +5220,10 @@
         <v>2015.912244298022</v>
       </c>
       <c r="Q13" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R13" t="n">
-        <v>2055.465378692325</v>
+        <v>2055.465378692326</v>
       </c>
       <c r="S13" t="n">
         <v>1900.553221957024</v>
@@ -5232,19 +5232,19 @@
         <v>1660.946142649494</v>
       </c>
       <c r="U13" t="n">
-        <v>1380.809340130222</v>
+        <v>1660.946142649494</v>
       </c>
       <c r="V13" t="n">
-        <v>1380.809340130222</v>
+        <v>1379.234675257523</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.956936302735</v>
+        <v>1104.382271430036</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.533079063885</v>
+        <v>861.818374875841</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.1903107536275</v>
+        <v>861.818374875841</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>967.6986346882113</v>
+        <v>1292.073081575553</v>
       </c>
       <c r="C14" t="n">
-        <v>967.6986346882113</v>
+        <v>1292.073081575553</v>
       </c>
       <c r="D14" t="n">
-        <v>544.4060138732116</v>
+        <v>868.7804607605536</v>
       </c>
       <c r="E14" t="n">
-        <v>544.4060138732116</v>
+        <v>868.7804607605536</v>
       </c>
       <c r="F14" t="n">
-        <v>544.4060138732116</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="G14" t="n">
-        <v>142.0142913660989</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H14" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I14" t="n">
         <v>80.64296560125308</v>
@@ -5299,31 +5299,31 @@
         <v>1807.677227494528</v>
       </c>
       <c r="Q14" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R14" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S14" t="n">
         <v>2003.235536064805</v>
       </c>
       <c r="T14" t="n">
-        <v>2003.235536064805</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="U14" t="n">
-        <v>1745.036413853492</v>
+        <v>1532.635323325428</v>
       </c>
       <c r="V14" t="n">
-        <v>1387.546998979741</v>
+        <v>1292.073081575553</v>
       </c>
       <c r="W14" t="n">
-        <v>1387.546998979741</v>
+        <v>1292.073081575553</v>
       </c>
       <c r="X14" t="n">
-        <v>1387.546998979741</v>
+        <v>1292.073081575553</v>
       </c>
       <c r="Y14" t="n">
-        <v>1387.546998979741</v>
+        <v>1292.073081575553</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H15" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I15" t="n">
-        <v>60.41309749025406</v>
+        <v>83.27141779353224</v>
       </c>
       <c r="J15" t="n">
-        <v>136.4876372116241</v>
+        <v>451.4484499844934</v>
       </c>
       <c r="K15" t="n">
-        <v>279.2113015876566</v>
+        <v>594.1721143605259</v>
       </c>
       <c r="L15" t="n">
-        <v>789.8601875678153</v>
+        <v>793.6091072459662</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.739242507881</v>
+        <v>1029.488162186032</v>
       </c>
       <c r="N15" t="n">
-        <v>1270.202718950985</v>
+        <v>1273.951638629136</v>
       </c>
       <c r="O15" t="n">
-        <v>1490.228323359869</v>
+        <v>1493.97724303802</v>
       </c>
       <c r="P15" t="n">
         <v>1667.425565111552</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>597.902700600506</v>
+        <v>550.4823538540204</v>
       </c>
       <c r="C16" t="n">
-        <v>597.902700600506</v>
+        <v>378.5097907329364</v>
       </c>
       <c r="D16" t="n">
-        <v>434.5859277272767</v>
+        <v>378.5097907329364</v>
       </c>
       <c r="E16" t="n">
-        <v>280.1477675599574</v>
+        <v>378.5097907329364</v>
       </c>
       <c r="F16" t="n">
-        <v>280.1477675599574</v>
+        <v>206.6480165074968</v>
       </c>
       <c r="G16" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H16" t="n">
-        <v>114.7643074953017</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I16" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J16" t="n">
-        <v>159.284049374258</v>
+        <v>81.36233272603711</v>
       </c>
       <c r="K16" t="n">
-        <v>485.278018711607</v>
+        <v>407.3563020633862</v>
       </c>
       <c r="L16" t="n">
-        <v>590.861152551228</v>
+        <v>889.3283294941721</v>
       </c>
       <c r="M16" t="n">
-        <v>1101.510038531387</v>
+        <v>1399.977215474331</v>
       </c>
       <c r="N16" t="n">
-        <v>1610.012298605994</v>
+        <v>1510.446552707058</v>
       </c>
       <c r="O16" t="n">
         <v>1783.151094687208</v>
@@ -5457,10 +5457,10 @@
         <v>1864.538746920123</v>
       </c>
       <c r="Q16" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R16" t="n">
-        <v>2055.465378692325</v>
+        <v>2055.465378692326</v>
       </c>
       <c r="S16" t="n">
         <v>1900.553221957024</v>
@@ -5469,19 +5469,19 @@
         <v>1660.946142649494</v>
       </c>
       <c r="U16" t="n">
-        <v>1380.809340130222</v>
+        <v>1380.809340130223</v>
       </c>
       <c r="V16" t="n">
-        <v>1099.097872738251</v>
+        <v>1380.809340130223</v>
       </c>
       <c r="W16" t="n">
-        <v>824.245468910764</v>
+        <v>1209.554987430539</v>
       </c>
       <c r="X16" t="n">
-        <v>824.245468910764</v>
+        <v>966.9910908763441</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.902700600506</v>
+        <v>740.6483225660861</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5162608707726</v>
+        <v>1574.45913252867</v>
       </c>
       <c r="C17" t="n">
-        <v>784.5162608707726</v>
+        <v>1147.55840254197</v>
       </c>
       <c r="D17" t="n">
-        <v>361.2236400557729</v>
+        <v>1147.55840254197</v>
       </c>
       <c r="E17" t="n">
-        <v>361.2236400557729</v>
+        <v>721.5814626898276</v>
       </c>
       <c r="F17" t="n">
-        <v>361.2236400557729</v>
+        <v>721.5814626898276</v>
       </c>
       <c r="G17" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H17" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I17" t="n">
-        <v>80.64296560125331</v>
+        <v>80.64296560125339</v>
       </c>
       <c r="J17" t="n">
-        <v>213.5062128414247</v>
+        <v>213.506212841425</v>
       </c>
       <c r="K17" t="n">
-        <v>420.8787884255854</v>
+        <v>420.8787884255855</v>
       </c>
       <c r="L17" t="n">
-        <v>684.1393418771318</v>
+        <v>684.139341877132</v>
       </c>
       <c r="M17" t="n">
         <v>982.2137160547604</v>
@@ -5533,34 +5533,34 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P17" t="n">
-        <v>1807.677227494528</v>
+        <v>1807.677227494527</v>
       </c>
       <c r="Q17" t="n">
         <v>1978.01981467369</v>
       </c>
       <c r="R17" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S17" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T17" t="n">
-        <v>1850.826731613991</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U17" t="n">
-        <v>1592.627609402678</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V17" t="n">
-        <v>1592.627609402678</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W17" t="n">
-        <v>1196.236259703025</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X17" t="n">
-        <v>784.5162608707726</v>
+        <v>1979.79640257378</v>
       </c>
       <c r="Y17" t="n">
-        <v>784.5162608707726</v>
+        <v>1574.45913252867</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H18" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I18" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466591</v>
       </c>
       <c r="J18" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K18" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L18" t="n">
-        <v>789.8601875678153</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.739242507881</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N18" t="n">
-        <v>1273.951638629136</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O18" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P18" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R18" t="n">
         <v>1815.226133375711</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.1263306682807</v>
+        <v>172.9352787839757</v>
       </c>
       <c r="C19" t="n">
-        <v>213.1263306682807</v>
+        <v>172.9352787839757</v>
       </c>
       <c r="D19" t="n">
-        <v>213.1263306682807</v>
+        <v>172.9352787839757</v>
       </c>
       <c r="E19" t="n">
-        <v>213.1263306682807</v>
+        <v>172.9352787839757</v>
       </c>
       <c r="F19" t="n">
-        <v>41.2645564428411</v>
+        <v>172.9352787839757</v>
       </c>
       <c r="G19" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H19" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I19" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J19" t="n">
         <v>159.284049374258</v>
       </c>
       <c r="K19" t="n">
-        <v>237.995409597585</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L19" t="n">
-        <v>343.5785434372059</v>
+        <v>967.2500461423929</v>
       </c>
       <c r="M19" t="n">
-        <v>854.2274294173645</v>
+        <v>1079.10212791834</v>
       </c>
       <c r="N19" t="n">
-        <v>993.9571298450333</v>
+        <v>1587.604387992947</v>
       </c>
       <c r="O19" t="n">
-        <v>1470.3948901139</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P19" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q19" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R19" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S19" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406754</v>
       </c>
       <c r="T19" t="n">
-        <v>1660.946142649494</v>
+        <v>1668.708586099224</v>
       </c>
       <c r="U19" t="n">
-        <v>1380.809340130222</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V19" t="n">
-        <v>1099.097872738251</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="W19" t="n">
-        <v>824.245468910764</v>
+        <v>832.0079123604942</v>
       </c>
       <c r="X19" t="n">
-        <v>629.6350676906043</v>
+        <v>589.4440158062993</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.2922993803463</v>
+        <v>363.1012474960413</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1572.68258435257</v>
+        <v>1178.049901728165</v>
       </c>
       <c r="C20" t="n">
-        <v>1572.68258435257</v>
+        <v>751.1491717414654</v>
       </c>
       <c r="D20" t="n">
-        <v>1572.68258435257</v>
+        <v>751.1491717414654</v>
       </c>
       <c r="E20" t="n">
-        <v>1146.705644500427</v>
+        <v>325.1722318893229</v>
       </c>
       <c r="F20" t="n">
-        <v>721.5814626898276</v>
+        <v>325.1722318893229</v>
       </c>
       <c r="G20" t="n">
         <v>319.1897401827149</v>
       </c>
       <c r="H20" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I20" t="n">
         <v>80.64296560125339</v>
       </c>
       <c r="J20" t="n">
-        <v>213.506212841425</v>
+        <v>213.506212841426</v>
       </c>
       <c r="K20" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255865</v>
       </c>
       <c r="L20" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771329</v>
       </c>
       <c r="M20" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547613</v>
       </c>
       <c r="N20" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O20" t="n">
-        <v>1570.419518651853</v>
+        <v>1570.419518651854</v>
       </c>
       <c r="P20" t="n">
         <v>1807.677227494528</v>
       </c>
       <c r="Q20" t="n">
-        <v>1978.01981467369</v>
+        <v>1978.019814673691</v>
       </c>
       <c r="R20" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S20" t="n">
         <v>2003.235536064805</v>
@@ -5785,19 +5785,19 @@
         <v>2003.235536064805</v>
       </c>
       <c r="U20" t="n">
-        <v>1745.036413853492</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V20" t="n">
-        <v>1745.036413853492</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W20" t="n">
-        <v>1745.036413853492</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X20" t="n">
-        <v>1745.036413853492</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="Y20" t="n">
-        <v>1572.68258435257</v>
+        <v>1597.898266019695</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H21" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I21" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466591</v>
       </c>
       <c r="J21" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K21" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L21" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M21" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N21" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O21" t="n">
-        <v>1179.016430265151</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P21" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R21" t="n">
         <v>1815.226133375711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.3388040463111</v>
+        <v>399.2780470942336</v>
       </c>
       <c r="C22" t="n">
-        <v>183.3662409252271</v>
+        <v>227.3054839731496</v>
       </c>
       <c r="D22" t="n">
-        <v>183.3662409252271</v>
+        <v>227.3054839731496</v>
       </c>
       <c r="E22" t="n">
-        <v>183.3662409252271</v>
+        <v>227.3054839731496</v>
       </c>
       <c r="F22" t="n">
-        <v>41.2645564428411</v>
+        <v>227.3054839731496</v>
       </c>
       <c r="G22" t="n">
-        <v>41.2645564428411</v>
+        <v>227.3054839731496</v>
       </c>
       <c r="H22" t="n">
-        <v>41.2645564428411</v>
+        <v>114.7643074953017</v>
       </c>
       <c r="I22" t="n">
-        <v>41.2645564428411</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="J22" t="n">
         <v>159.284049374258</v>
       </c>
       <c r="K22" t="n">
-        <v>237.995409597585</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L22" t="n">
-        <v>719.9674370283708</v>
+        <v>967.2500461423929</v>
       </c>
       <c r="M22" t="n">
-        <v>883.4877926123063</v>
+        <v>1477.898932122552</v>
       </c>
       <c r="N22" t="n">
-        <v>993.9571298450333</v>
+        <v>1835.789156099443</v>
       </c>
       <c r="O22" t="n">
-        <v>1470.3948901139</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P22" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q22" t="n">
-        <v>2063.227822142055</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="R22" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S22" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406754</v>
       </c>
       <c r="T22" t="n">
-        <v>1660.946142649494</v>
+        <v>1668.708586099224</v>
       </c>
       <c r="U22" t="n">
-        <v>1380.809340130222</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V22" t="n">
-        <v>1099.097872738251</v>
+        <v>1106.860316187981</v>
       </c>
       <c r="W22" t="n">
-        <v>824.245468910764</v>
+        <v>832.0079123604942</v>
       </c>
       <c r="X22" t="n">
-        <v>581.6815723565691</v>
+        <v>589.4440158062993</v>
       </c>
       <c r="Y22" t="n">
-        <v>355.3388040463111</v>
+        <v>589.4440158062993</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1605.076747725187</v>
+        <v>2186.215307857237</v>
       </c>
       <c r="C23" t="n">
-        <v>1178.176017738487</v>
+        <v>1759.314577870537</v>
       </c>
       <c r="D23" t="n">
-        <v>933.6302345484244</v>
+        <v>1336.021957055537</v>
       </c>
       <c r="E23" t="n">
-        <v>507.653294696282</v>
+        <v>910.0450172033948</v>
       </c>
       <c r="F23" t="n">
-        <v>82.5291128856822</v>
+        <v>484.920835392795</v>
       </c>
       <c r="G23" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="H23" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I23" t="n">
         <v>121.9075220440945</v>
@@ -5992,49 +5992,49 @@
         <v>254.7707692842661</v>
       </c>
       <c r="K23" t="n">
-        <v>462.1433448684266</v>
+        <v>1213.058607630787</v>
       </c>
       <c r="L23" t="n">
-        <v>725.403898319973</v>
+        <v>2010.627921615416</v>
       </c>
       <c r="M23" t="n">
-        <v>1746.70167028029</v>
+        <v>2308.702295793045</v>
       </c>
       <c r="N23" t="n">
-        <v>2603.609923887305</v>
+        <v>2612.349568833592</v>
       </c>
       <c r="O23" t="n">
-        <v>2888.168453443851</v>
+        <v>3633.647340793909</v>
       </c>
       <c r="P23" t="n">
-        <v>3870.905049636582</v>
+        <v>3870.905049636584</v>
       </c>
       <c r="Q23" t="n">
-        <v>4041.247636815744</v>
+        <v>4041.247636815746</v>
       </c>
       <c r="R23" t="n">
-        <v>4126.455644284109</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="S23" t="n">
-        <v>4066.463358206859</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="T23" t="n">
-        <v>3854.062267678795</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="U23" t="n">
-        <v>3595.863145467482</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="V23" t="n">
-        <v>3238.373730593732</v>
+        <v>3819.512290725783</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.982380894079</v>
+        <v>3423.120941026129</v>
       </c>
       <c r="X23" t="n">
-        <v>2430.262382061826</v>
+        <v>3011.400942193877</v>
       </c>
       <c r="Y23" t="n">
-        <v>2024.925112016717</v>
+        <v>2606.063672148767</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>125.842464955837</v>
       </c>
       <c r="H24" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I24" t="n">
         <v>101.6776539330952</v>
       </c>
       <c r="J24" t="n">
-        <v>177.7521936544652</v>
+        <v>469.8546861240564</v>
       </c>
       <c r="K24" t="n">
-        <v>320.4758580304978</v>
+        <v>612.578350500089</v>
       </c>
       <c r="L24" t="n">
-        <v>519.912850915938</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M24" t="n">
-        <v>755.7919058560035</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.255382299108</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O24" t="n">
-        <v>1220.280986707992</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P24" t="n">
-        <v>1393.729308781524</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q24" t="n">
-        <v>1816.523862078392</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R24" t="n">
         <v>1856.490689818552</v>
@@ -6144,28 +6144,28 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I25" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="J25" t="n">
-        <v>200.5486058170991</v>
+        <v>122.6268891688782</v>
       </c>
       <c r="K25" t="n">
-        <v>443.7240585190079</v>
+        <v>448.6208585062273</v>
       </c>
       <c r="L25" t="n">
-        <v>925.6960859497938</v>
+        <v>930.5928859370131</v>
       </c>
       <c r="M25" t="n">
-        <v>1451.083648188563</v>
+        <v>1455.980448175782</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.58590826317</v>
+        <v>1964.482708250389</v>
       </c>
       <c r="O25" t="n">
-        <v>2436.023668532036</v>
+        <v>2440.920468519256</v>
       </c>
       <c r="P25" t="n">
-        <v>2830.16752533826</v>
+        <v>2835.064325325479</v>
       </c>
       <c r="Q25" t="n">
         <v>3028.856600560192</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2038.163551744968</v>
+        <v>1783.823585350124</v>
       </c>
       <c r="C26" t="n">
-        <v>1611.262821758268</v>
+        <v>1356.922855363424</v>
       </c>
       <c r="D26" t="n">
-        <v>1187.970200943269</v>
+        <v>933.6302345484245</v>
       </c>
       <c r="E26" t="n">
-        <v>1187.970200943269</v>
+        <v>507.653294696282</v>
       </c>
       <c r="F26" t="n">
-        <v>762.8460191326687</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="G26" t="n">
-        <v>360.454296625556</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="H26" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I26" t="n">
         <v>121.9075220440945</v>
@@ -6229,49 +6229,49 @@
         <v>254.7707692842661</v>
       </c>
       <c r="K26" t="n">
-        <v>462.1433448684266</v>
+        <v>1213.058607630787</v>
       </c>
       <c r="L26" t="n">
-        <v>1483.441116828744</v>
+        <v>1476.319161082333</v>
       </c>
       <c r="M26" t="n">
-        <v>2327.791039277045</v>
+        <v>1774.393535259962</v>
       </c>
       <c r="N26" t="n">
-        <v>3349.088811237361</v>
+        <v>2078.040808300509</v>
       </c>
       <c r="O26" t="n">
-        <v>3633.647340793907</v>
+        <v>2362.599337857055</v>
       </c>
       <c r="P26" t="n">
-        <v>3870.905049636582</v>
+        <v>3345.335934049786</v>
       </c>
       <c r="Q26" t="n">
-        <v>4041.247636815744</v>
+        <v>4007.527428591683</v>
       </c>
       <c r="R26" t="n">
-        <v>4126.455644284109</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="S26" t="n">
-        <v>4094.212892181531</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="T26" t="n">
-        <v>3881.811801653467</v>
+        <v>4032.809105303733</v>
       </c>
       <c r="U26" t="n">
-        <v>3623.612679442154</v>
+        <v>3774.60998309242</v>
       </c>
       <c r="V26" t="n">
-        <v>3266.123264568404</v>
+        <v>3417.12056821867</v>
       </c>
       <c r="W26" t="n">
-        <v>2869.731914868751</v>
+        <v>3020.729218519017</v>
       </c>
       <c r="X26" t="n">
-        <v>2458.011916036498</v>
+        <v>2609.009219686764</v>
       </c>
       <c r="Y26" t="n">
-        <v>2458.011916036498</v>
+        <v>2203.671949641654</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>125.842464955837</v>
       </c>
       <c r="H27" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I27" t="n">
         <v>101.6776539330952</v>
       </c>
       <c r="J27" t="n">
-        <v>177.7521936544652</v>
+        <v>469.8546861240564</v>
       </c>
       <c r="K27" t="n">
-        <v>635.4366708033672</v>
+        <v>612.578350500089</v>
       </c>
       <c r="L27" t="n">
-        <v>834.8736636888075</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M27" t="n">
-        <v>1070.752718628873</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N27" t="n">
-        <v>1315.216195071977</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O27" t="n">
-        <v>1535.241799480861</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.690121554393</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q27" t="n">
-        <v>1816.523862078392</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R27" t="n">
         <v>1856.490689818552</v>
@@ -6381,28 +6381,28 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I28" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="J28" t="n">
-        <v>200.5486058170991</v>
+        <v>122.6268891688782</v>
       </c>
       <c r="K28" t="n">
-        <v>526.5425751544482</v>
+        <v>448.6208585062273</v>
       </c>
       <c r="L28" t="n">
-        <v>1008.514602585234</v>
+        <v>930.5928859370131</v>
       </c>
       <c r="M28" t="n">
-        <v>1451.083648188563</v>
+        <v>1455.980448175782</v>
       </c>
       <c r="N28" t="n">
-        <v>1959.58590826317</v>
+        <v>1964.482708250389</v>
       </c>
       <c r="O28" t="n">
-        <v>2436.023668532036</v>
+        <v>2440.920468519256</v>
       </c>
       <c r="P28" t="n">
-        <v>2830.16752533826</v>
+        <v>2835.064325325479</v>
       </c>
       <c r="Q28" t="n">
         <v>3028.856600560192</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1635.771829237855</v>
+        <v>2186.215307857237</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.871099251156</v>
+        <v>1759.314577870537</v>
       </c>
       <c r="D29" t="n">
-        <v>785.5784784361558</v>
+        <v>1336.021957055537</v>
       </c>
       <c r="E29" t="n">
-        <v>785.5784784361558</v>
+        <v>910.0450172033948</v>
       </c>
       <c r="F29" t="n">
-        <v>360.454296625556</v>
+        <v>484.920835392795</v>
       </c>
       <c r="G29" t="n">
-        <v>360.454296625556</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="H29" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I29" t="n">
         <v>121.9075220440945</v>
@@ -6466,49 +6466,49 @@
         <v>254.7707692842661</v>
       </c>
       <c r="K29" t="n">
-        <v>462.1433448684266</v>
+        <v>462.1433448684267</v>
       </c>
       <c r="L29" t="n">
-        <v>1357.800711028643</v>
+        <v>1483.441116828744</v>
       </c>
       <c r="M29" t="n">
-        <v>1655.875085206272</v>
+        <v>2504.738888789062</v>
       </c>
       <c r="N29" t="n">
-        <v>1959.522358246819</v>
+        <v>3349.088811237363</v>
       </c>
       <c r="O29" t="n">
-        <v>2244.080887803364</v>
+        <v>3633.647340793909</v>
       </c>
       <c r="P29" t="n">
-        <v>3226.817483996096</v>
+        <v>3870.905049636584</v>
       </c>
       <c r="Q29" t="n">
-        <v>3889.008978537993</v>
+        <v>4041.247636815746</v>
       </c>
       <c r="R29" t="n">
-        <v>4126.455644284109</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="S29" t="n">
-        <v>4066.463358206859</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="T29" t="n">
-        <v>3854.062267678795</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="U29" t="n">
-        <v>3595.863145467482</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="V29" t="n">
-        <v>3238.373730593732</v>
+        <v>3819.512290725783</v>
       </c>
       <c r="W29" t="n">
-        <v>2841.982380894079</v>
+        <v>3423.120941026129</v>
       </c>
       <c r="X29" t="n">
-        <v>2430.262382061826</v>
+        <v>3011.400942193877</v>
       </c>
       <c r="Y29" t="n">
-        <v>2055.620193529386</v>
+        <v>2606.063672148767</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>125.842464955837</v>
       </c>
       <c r="H30" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I30" t="n">
-        <v>101.6776539330952</v>
+        <v>125.134959777507</v>
       </c>
       <c r="J30" t="n">
-        <v>177.7521936544652</v>
+        <v>387.2575061424291</v>
       </c>
       <c r="K30" t="n">
-        <v>320.4758580304978</v>
+        <v>529.9811705184616</v>
       </c>
       <c r="L30" t="n">
-        <v>519.912850915938</v>
+        <v>729.4181634039019</v>
       </c>
       <c r="M30" t="n">
-        <v>755.7919058560035</v>
+        <v>965.2972183439674</v>
       </c>
       <c r="N30" t="n">
-        <v>1000.255382299108</v>
+        <v>1209.760694787072</v>
       </c>
       <c r="O30" t="n">
-        <v>1220.280986707992</v>
+        <v>1429.786299195956</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.690121554393</v>
+        <v>1603.234621269487</v>
       </c>
       <c r="Q30" t="n">
-        <v>1816.523862078392</v>
+        <v>1711.068361793486</v>
       </c>
       <c r="R30" t="n">
         <v>1856.490689818552</v>
@@ -6618,28 +6618,28 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I31" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="J31" t="n">
-        <v>200.5486058170991</v>
+        <v>122.6268891688782</v>
       </c>
       <c r="K31" t="n">
-        <v>526.5425751544482</v>
+        <v>448.6208585062273</v>
       </c>
       <c r="L31" t="n">
-        <v>1008.514602585234</v>
+        <v>930.5928859370131</v>
       </c>
       <c r="M31" t="n">
-        <v>1451.083648188563</v>
+        <v>1455.980448175782</v>
       </c>
       <c r="N31" t="n">
-        <v>1959.58590826317</v>
+        <v>1964.482708250389</v>
       </c>
       <c r="O31" t="n">
-        <v>2436.023668532036</v>
+        <v>2440.920468519256</v>
       </c>
       <c r="P31" t="n">
-        <v>2830.16752533826</v>
+        <v>2835.064325325479</v>
       </c>
       <c r="Q31" t="n">
         <v>3028.856600560192</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2039.016309786511</v>
+        <v>2358.957512298592</v>
       </c>
       <c r="C32" t="n">
-        <v>1612.115579799811</v>
+        <v>1932.056782311892</v>
       </c>
       <c r="D32" t="n">
-        <v>1188.822958984811</v>
+        <v>1508.764161496892</v>
       </c>
       <c r="E32" t="n">
-        <v>762.8460191326687</v>
+        <v>1082.787221644749</v>
       </c>
       <c r="F32" t="n">
-        <v>762.8460191326687</v>
+        <v>657.6630398341497</v>
       </c>
       <c r="G32" t="n">
-        <v>360.454296625556</v>
+        <v>255.271317327037</v>
       </c>
       <c r="H32" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I32" t="n">
         <v>121.9075220440945</v>
       </c>
       <c r="J32" t="n">
-        <v>254.7707692842661</v>
+        <v>646.4999879918923</v>
       </c>
       <c r="K32" t="n">
-        <v>462.1433448684266</v>
+        <v>1604.787826338413</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.977422695645</v>
+        <v>1868.04837978996</v>
       </c>
       <c r="M32" t="n">
-        <v>1591.051796873274</v>
+        <v>2166.122753967588</v>
       </c>
       <c r="N32" t="n">
-        <v>2612.349568833591</v>
+        <v>2469.770027008135</v>
       </c>
       <c r="O32" t="n">
-        <v>3633.647340793907</v>
+        <v>2888.168453443853</v>
       </c>
       <c r="P32" t="n">
-        <v>3870.905049636582</v>
+        <v>3870.905049636584</v>
       </c>
       <c r="Q32" t="n">
-        <v>4041.247636815744</v>
+        <v>4041.247636815746</v>
       </c>
       <c r="R32" t="n">
-        <v>4126.455644284109</v>
+        <v>4126.455644284111</v>
       </c>
       <c r="S32" t="n">
-        <v>4066.463358206859</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="T32" t="n">
-        <v>3854.062267678795</v>
+        <v>3854.062267678797</v>
       </c>
       <c r="U32" t="n">
-        <v>3595.863145467482</v>
+        <v>3595.863145467484</v>
       </c>
       <c r="V32" t="n">
-        <v>3238.373730593732</v>
+        <v>3595.863145467484</v>
       </c>
       <c r="W32" t="n">
-        <v>2841.982380894079</v>
+        <v>3595.863145467484</v>
       </c>
       <c r="X32" t="n">
-        <v>2841.982380894079</v>
+        <v>3184.143146635231</v>
       </c>
       <c r="Y32" t="n">
-        <v>2458.86467407804</v>
+        <v>2778.805876590122</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>125.842464955837</v>
       </c>
       <c r="H33" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="I33" t="n">
-        <v>101.6776539330952</v>
+        <v>125.134959777507</v>
       </c>
       <c r="J33" t="n">
-        <v>177.7521936544652</v>
+        <v>201.2094994988771</v>
       </c>
       <c r="K33" t="n">
-        <v>320.4758580304978</v>
+        <v>343.9331638749096</v>
       </c>
       <c r="L33" t="n">
-        <v>519.912850915938</v>
+        <v>543.3701567603498</v>
       </c>
       <c r="M33" t="n">
-        <v>755.7919058560035</v>
+        <v>779.2492117004153</v>
       </c>
       <c r="N33" t="n">
-        <v>1000.255382299108</v>
+        <v>1023.71268814352</v>
       </c>
       <c r="O33" t="n">
-        <v>1220.280986707992</v>
+        <v>1243.738292552403</v>
       </c>
       <c r="P33" t="n">
-        <v>1603.234621269487</v>
+        <v>1417.186614625935</v>
       </c>
       <c r="Q33" t="n">
         <v>1711.068361793486</v>
@@ -6855,28 +6855,28 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I34" t="n">
-        <v>82.5291128856822</v>
+        <v>82.52911288568222</v>
       </c>
       <c r="J34" t="n">
         <v>200.5486058170991</v>
       </c>
       <c r="K34" t="n">
-        <v>443.7240585190079</v>
+        <v>526.5425751544482</v>
       </c>
       <c r="L34" t="n">
-        <v>925.6960859497938</v>
+        <v>1008.514602585234</v>
       </c>
       <c r="M34" t="n">
-        <v>1451.083648188563</v>
+        <v>1533.902164824003</v>
       </c>
       <c r="N34" t="n">
-        <v>1959.58590826317</v>
+        <v>2042.40442489861</v>
       </c>
       <c r="O34" t="n">
-        <v>2436.023668532036</v>
+        <v>2518.842185167477</v>
       </c>
       <c r="P34" t="n">
-        <v>2830.16752533826</v>
+        <v>2912.9860419737</v>
       </c>
       <c r="Q34" t="n">
         <v>3028.856600560192</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1186.995822073621</v>
+        <v>585.8183792349786</v>
       </c>
       <c r="C35" t="n">
-        <v>1186.995822073621</v>
+        <v>585.8183792349786</v>
       </c>
       <c r="D35" t="n">
-        <v>763.7032012586212</v>
+        <v>585.8183792349786</v>
       </c>
       <c r="E35" t="n">
-        <v>337.7262614064788</v>
+        <v>585.8183792349786</v>
       </c>
       <c r="F35" t="n">
-        <v>41.2645564428411</v>
+        <v>585.8183792349786</v>
       </c>
       <c r="G35" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H35" t="n">
         <v>41.2645564428411</v>
       </c>
       <c r="I35" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125308</v>
       </c>
       <c r="J35" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414245</v>
       </c>
       <c r="K35" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255851</v>
       </c>
       <c r="L35" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771315</v>
       </c>
       <c r="M35" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547602</v>
       </c>
       <c r="N35" t="n">
         <v>1285.860989095307</v>
@@ -6955,7 +6955,7 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P35" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q35" t="n">
         <v>1978.01981467369</v>
@@ -6964,25 +6964,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S35" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T35" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U35" t="n">
-        <v>2003.235536064804</v>
+        <v>1745.036413853492</v>
       </c>
       <c r="V35" t="n">
-        <v>2003.235536064804</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="W35" t="n">
-        <v>1606.844186365151</v>
+        <v>991.1556492800883</v>
       </c>
       <c r="X35" t="n">
-        <v>1606.844186365151</v>
+        <v>991.1556492800883</v>
       </c>
       <c r="Y35" t="n">
-        <v>1606.844186365151</v>
+        <v>585.8183792349786</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I36" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J36" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K36" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L36" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M36" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N36" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O36" t="n">
-        <v>1179.016430265151</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P36" t="n">
-        <v>1352.464752338683</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q36" t="n">
         <v>1669.803805350645</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>280.9725133424481</v>
+        <v>752.2918230194463</v>
       </c>
       <c r="C37" t="n">
-        <v>280.9725133424481</v>
+        <v>580.3192598983622</v>
       </c>
       <c r="D37" t="n">
-        <v>280.9725133424481</v>
+        <v>417.002487025133</v>
       </c>
       <c r="E37" t="n">
-        <v>114.7643074953017</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="F37" t="n">
-        <v>114.7643074953017</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="G37" t="n">
-        <v>114.7643074953017</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="H37" t="n">
         <v>114.7643074953017</v>
@@ -7095,52 +7095,52 @@
         <v>41.2645564428411</v>
       </c>
       <c r="J37" t="n">
-        <v>81.3623327260371</v>
+        <v>115.0432114461233</v>
       </c>
       <c r="K37" t="n">
-        <v>160.0736929493641</v>
+        <v>441.0371807834724</v>
       </c>
       <c r="L37" t="n">
-        <v>372.8389066321473</v>
+        <v>923.0092082142583</v>
       </c>
       <c r="M37" t="n">
-        <v>883.4877926123058</v>
+        <v>1034.861289990205</v>
       </c>
       <c r="N37" t="n">
-        <v>993.9571298450328</v>
+        <v>1145.330627222932</v>
       </c>
       <c r="O37" t="n">
-        <v>1470.3948901139</v>
+        <v>1621.768387491799</v>
       </c>
       <c r="P37" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q37" t="n">
         <v>2063.227822142055</v>
       </c>
       <c r="R37" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S37" t="n">
-        <v>1900.553221957023</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="T37" t="n">
-        <v>1660.946142649493</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="U37" t="n">
-        <v>1380.809340130222</v>
+        <v>1628.178862887482</v>
       </c>
       <c r="V37" t="n">
-        <v>1099.097872738251</v>
+        <v>1346.467395495511</v>
       </c>
       <c r="W37" t="n">
-        <v>824.2454689107635</v>
+        <v>1221.198487883899</v>
       </c>
       <c r="X37" t="n">
-        <v>581.6815723565686</v>
+        <v>978.6345913297042</v>
       </c>
       <c r="Y37" t="n">
-        <v>355.3388040463107</v>
+        <v>752.2918230194463</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1238.042187805415</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="C38" t="n">
-        <v>811.1414578187153</v>
+        <v>1576.334806078105</v>
       </c>
       <c r="D38" t="n">
-        <v>721.5814626898276</v>
+        <v>1153.042185263105</v>
       </c>
       <c r="E38" t="n">
-        <v>721.5814626898276</v>
+        <v>727.0652454109626</v>
       </c>
       <c r="F38" t="n">
-        <v>721.5814626898276</v>
+        <v>301.9410636003628</v>
       </c>
       <c r="G38" t="n">
-        <v>319.1897401827149</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H38" t="n">
         <v>41.2645564428411</v>
@@ -7174,25 +7174,25 @@
         <v>80.64296560125339</v>
       </c>
       <c r="J38" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414255</v>
       </c>
       <c r="K38" t="n">
-        <v>420.8787884255856</v>
+        <v>420.878788425586</v>
       </c>
       <c r="L38" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771324</v>
       </c>
       <c r="M38" t="n">
-        <v>982.2137160547604</v>
+        <v>982.2137160547609</v>
       </c>
       <c r="N38" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O38" t="n">
         <v>1570.419518651853</v>
       </c>
       <c r="P38" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q38" t="n">
         <v>1978.01981467369</v>
@@ -7201,25 +7201,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S38" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T38" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U38" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V38" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W38" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X38" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="Y38" t="n">
-        <v>1657.890552096945</v>
+        <v>2003.235536064805</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>60.41309749025406</v>
       </c>
       <c r="J39" t="n">
-        <v>136.4876372116241</v>
+        <v>428.5901296812153</v>
       </c>
       <c r="K39" t="n">
-        <v>279.2113015876566</v>
+        <v>571.3137940572478</v>
       </c>
       <c r="L39" t="n">
-        <v>478.6482944730969</v>
+        <v>770.7507869426881</v>
       </c>
       <c r="M39" t="n">
-        <v>714.5273494131625</v>
+        <v>1006.629841882754</v>
       </c>
       <c r="N39" t="n">
-        <v>958.9908258562668</v>
+        <v>1251.093318325858</v>
       </c>
       <c r="O39" t="n">
-        <v>1179.016430265151</v>
+        <v>1471.118922734742</v>
       </c>
       <c r="P39" t="n">
-        <v>1667.425565111552</v>
+        <v>1644.567244808274</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.259305635551</v>
+        <v>1752.400985332273</v>
       </c>
       <c r="R39" t="n">
         <v>1815.226133375711</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.8843027262162</v>
+        <v>320.0849920695472</v>
       </c>
       <c r="C40" t="n">
-        <v>446.8843027262162</v>
+        <v>148.1124289484632</v>
       </c>
       <c r="D40" t="n">
-        <v>446.8843027262162</v>
+        <v>148.1124289484632</v>
       </c>
       <c r="E40" t="n">
-        <v>378.5097907329364</v>
+        <v>148.1124289484632</v>
       </c>
       <c r="F40" t="n">
-        <v>206.6480165074968</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G40" t="n">
         <v>41.2645564428411</v>
@@ -7332,25 +7332,25 @@
         <v>41.2645564428411</v>
       </c>
       <c r="J40" t="n">
-        <v>81.3623327260371</v>
+        <v>159.284049374258</v>
       </c>
       <c r="K40" t="n">
-        <v>181.9790545239538</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L40" t="n">
-        <v>287.5621883635747</v>
+        <v>967.2500461423929</v>
       </c>
       <c r="M40" t="n">
-        <v>798.2110743437332</v>
+        <v>1477.898932122552</v>
       </c>
       <c r="N40" t="n">
-        <v>1306.71333441834</v>
+        <v>1835.789156099443</v>
       </c>
       <c r="O40" t="n">
-        <v>1783.151094687207</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P40" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q40" t="n">
         <v>2063.227822142055</v>
@@ -7359,25 +7359,25 @@
         <v>2055.465378692325</v>
       </c>
       <c r="S40" t="n">
-        <v>1900.553221957023</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="T40" t="n">
-        <v>1660.946142649493</v>
+        <v>1815.858299384795</v>
       </c>
       <c r="U40" t="n">
-        <v>1380.809340130222</v>
+        <v>1535.721496865524</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.809340130222</v>
+        <v>1254.010029473553</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.956936302735</v>
+        <v>979.1576256460658</v>
       </c>
       <c r="X40" t="n">
-        <v>863.3930397485398</v>
+        <v>736.5937290918708</v>
       </c>
       <c r="Y40" t="n">
-        <v>637.0502714382818</v>
+        <v>510.2509607816129</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>625.2336821310837</v>
+        <v>766.329902895912</v>
       </c>
       <c r="C41" t="n">
-        <v>466.3887382534409</v>
+        <v>766.329902895912</v>
       </c>
       <c r="D41" t="n">
-        <v>466.3887382534409</v>
+        <v>766.329902895912</v>
       </c>
       <c r="E41" t="n">
-        <v>466.3887382534409</v>
+        <v>766.329902895912</v>
       </c>
       <c r="F41" t="n">
-        <v>41.2645564428411</v>
+        <v>341.2057210853122</v>
       </c>
       <c r="G41" t="n">
         <v>41.2645564428411</v>
@@ -7408,19 +7408,19 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I41" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J41" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414249</v>
       </c>
       <c r="K41" t="n">
-        <v>420.8787884255853</v>
+        <v>420.8787884255855</v>
       </c>
       <c r="L41" t="n">
-        <v>684.1393418771318</v>
+        <v>684.139341877132</v>
       </c>
       <c r="M41" t="n">
-        <v>982.21371605476</v>
+        <v>982.2137160547604</v>
       </c>
       <c r="N41" t="n">
         <v>1285.860989095307</v>
@@ -7429,7 +7429,7 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P41" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q41" t="n">
         <v>1978.01981467369</v>
@@ -7438,25 +7438,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S41" t="n">
-        <v>2003.235536064804</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T41" t="n">
-        <v>1790.83444553674</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U41" t="n">
-        <v>1790.83444553674</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V41" t="n">
-        <v>1433.34503066299</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W41" t="n">
-        <v>1036.953680963336</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="X41" t="n">
-        <v>625.2336821310837</v>
+        <v>1591.515537232552</v>
       </c>
       <c r="Y41" t="n">
-        <v>625.2336821310837</v>
+        <v>1186.178267187442</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I42" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J42" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K42" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L42" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M42" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N42" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O42" t="n">
-        <v>1179.016430265151</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P42" t="n">
-        <v>1352.464752338683</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q42" t="n">
         <v>1669.803805350645</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>673.2270710364742</v>
+        <v>588.1503043637263</v>
       </c>
       <c r="C43" t="n">
-        <v>501.2545079153901</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="D43" t="n">
-        <v>337.9377350421609</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="E43" t="n">
-        <v>337.9377350421609</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="F43" t="n">
-        <v>166.0759608167213</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="G43" t="n">
-        <v>114.7643074953017</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="H43" t="n">
         <v>114.7643074953017</v>
@@ -7569,22 +7569,22 @@
         <v>41.2645564428411</v>
       </c>
       <c r="J43" t="n">
-        <v>81.3623327260371</v>
+        <v>159.284049374258</v>
       </c>
       <c r="K43" t="n">
-        <v>407.3563020633862</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L43" t="n">
-        <v>512.9394359030071</v>
+        <v>665.2645126667783</v>
       </c>
       <c r="M43" t="n">
-        <v>1023.588321883166</v>
+        <v>1175.913398646937</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.090581957773</v>
+        <v>1684.415658721544</v>
       </c>
       <c r="O43" t="n">
-        <v>1783.151094687207</v>
+        <v>1783.151094687208</v>
       </c>
       <c r="P43" t="n">
         <v>1864.538746920123</v>
@@ -7593,28 +7593,28 @@
         <v>2063.227822142055</v>
       </c>
       <c r="R43" t="n">
-        <v>2055.465378692325</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S43" t="n">
-        <v>1900.553221957023</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="T43" t="n">
-        <v>1660.946142649493</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="U43" t="n">
-        <v>1380.809340130222</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V43" t="n">
-        <v>1380.809340130222</v>
+        <v>1247.222937940245</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.956936302735</v>
+        <v>1247.222937940245</v>
       </c>
       <c r="X43" t="n">
-        <v>863.3930397485398</v>
+        <v>1004.65904138605</v>
       </c>
       <c r="Y43" t="n">
-        <v>863.3930397485398</v>
+        <v>778.316273075792</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>841.6508381057627</v>
+        <v>295.7296901565359</v>
       </c>
       <c r="C44" t="n">
-        <v>841.6508381057627</v>
+        <v>295.7296901565359</v>
       </c>
       <c r="D44" t="n">
-        <v>841.6508381057627</v>
+        <v>295.7296901565359</v>
       </c>
       <c r="E44" t="n">
-        <v>841.6508381057627</v>
+        <v>295.7296901565359</v>
       </c>
       <c r="F44" t="n">
-        <v>416.5266562951629</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G44" t="n">
         <v>41.26455644284111</v>
@@ -7675,25 +7675,25 @@
         <v>2063.227822142056</v>
       </c>
       <c r="S44" t="n">
-        <v>2063.227822142056</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T44" t="n">
-        <v>2063.227822142056</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="U44" t="n">
-        <v>2063.227822142056</v>
+        <v>1532.635323325428</v>
       </c>
       <c r="V44" t="n">
-        <v>2063.227822142056</v>
+        <v>1532.635323325428</v>
       </c>
       <c r="W44" t="n">
-        <v>1666.836472442403</v>
+        <v>1532.635323325428</v>
       </c>
       <c r="X44" t="n">
-        <v>1666.836472442403</v>
+        <v>1120.915324493176</v>
       </c>
       <c r="Y44" t="n">
-        <v>1261.499202397293</v>
+        <v>715.5780544480659</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>845.28507636911</v>
+        <v>597.2833876027652</v>
       </c>
       <c r="C45" t="n">
-        <v>727.7791728866148</v>
+        <v>479.7774841202699</v>
       </c>
       <c r="D45" t="n">
-        <v>623.9392144018998</v>
+        <v>375.9375256355549</v>
       </c>
       <c r="E45" t="n">
-        <v>519.2372806748371</v>
+        <v>271.2355919084922</v>
       </c>
       <c r="F45" t="n">
-        <v>425.5914503577412</v>
+        <v>177.5897615913963</v>
       </c>
       <c r="G45" t="n">
-        <v>332.5795972793408</v>
+        <v>84.57790851299586</v>
       </c>
       <c r="H45" t="n">
-        <v>289.266245209186</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="I45" t="n">
-        <v>308.414786256599</v>
+        <v>83.87040333466591</v>
       </c>
       <c r="J45" t="n">
-        <v>384.489325977969</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K45" t="n">
-        <v>527.2129903540016</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L45" t="n">
-        <v>726.6499832394418</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M45" t="n">
-        <v>962.5290381795073</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N45" t="n">
-        <v>1206.992514622612</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O45" t="n">
-        <v>1427.018119031496</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P45" t="n">
-        <v>1600.466441105028</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q45" t="n">
-        <v>2023.260994401895</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R45" t="n">
-        <v>2063.227822142056</v>
+        <v>1815.226133375711</v>
       </c>
       <c r="S45" t="n">
-        <v>2001.256757648139</v>
+        <v>1753.255068881794</v>
       </c>
       <c r="T45" t="n">
-        <v>1863.57648549394</v>
+        <v>1615.574796727595</v>
       </c>
       <c r="U45" t="n">
-        <v>1678.876836696734</v>
+        <v>1430.875147930389</v>
       </c>
       <c r="V45" t="n">
-        <v>1473.903697836</v>
+        <v>1225.902009069655</v>
       </c>
       <c r="W45" t="n">
-        <v>1277.382320669218</v>
+        <v>1029.380631902873</v>
       </c>
       <c r="X45" t="n">
-        <v>1113.90497443588</v>
+        <v>865.9032856695355</v>
       </c>
       <c r="Y45" t="n">
-        <v>974.2120857891728</v>
+        <v>726.2103970228279</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>404.779914641776</v>
+        <v>1089.537057309542</v>
       </c>
       <c r="C46" t="n">
-        <v>404.779914641776</v>
+        <v>917.5644941884576</v>
       </c>
       <c r="D46" t="n">
-        <v>250.7942811779865</v>
+        <v>754.2477213152283</v>
       </c>
       <c r="E46" t="n">
-        <v>250.7942811779865</v>
+        <v>588.0395154680818</v>
       </c>
       <c r="F46" t="n">
-        <v>250.7942811779865</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="G46" t="n">
         <v>250.7942811779865</v>
@@ -7830,28 +7830,28 @@
         <v>2063.227822142056</v>
       </c>
       <c r="R46" t="n">
-        <v>2055.465378692326</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S46" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406754</v>
       </c>
       <c r="T46" t="n">
-        <v>1900.553221957024</v>
+        <v>1872.443696839258</v>
       </c>
       <c r="U46" t="n">
-        <v>1620.416419437753</v>
+        <v>1872.443696839258</v>
       </c>
       <c r="V46" t="n">
-        <v>1338.704952045782</v>
+        <v>1590.732229447286</v>
       </c>
       <c r="W46" t="n">
-        <v>1063.852548218294</v>
+        <v>1315.879825619799</v>
       </c>
       <c r="X46" t="n">
-        <v>821.2886516640996</v>
+        <v>1315.879825619799</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.9458833538416</v>
+        <v>1089.537057309542</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>40.59695124522852</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>277.5452838788819</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>318.1422351241105</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>228.0574318115651</v>
       </c>
       <c r="M13" t="n">
-        <v>402.8250547517289</v>
+        <v>402.8250547517291</v>
       </c>
       <c r="N13" t="n">
-        <v>328.6288923155406</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.0892124275537</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>314.3554475704226</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.786787553687759</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>402.8250547517289</v>
+        <v>402.825054751729</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>75.15490920762655</v>
+        <v>175.7263697116026</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>187.9272794379311</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>314.3554475704226</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.786787553687788</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>402.8250547517289</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>29.55592241913315</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>250.6916849560569</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>187.9272794379311</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.1422351241106</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>52.19017556362471</v>
+        <v>402.825054751729</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>249.9200876203683</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>539.7058187202861</v>
       </c>
       <c r="M23" t="n">
-        <v>730.5286846289785</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>558.8494753196646</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>744.1810529331026</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>318.1422351241102</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.08921242755348</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>166.1253459379615</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>147.9562599905857</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>765.6941601098694</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>551.7934831016894</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>724.8994938583538</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>34.06081638794221</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>318.1422351241105</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.08921242755348</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>334.0575392195774</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>147.9562599905857</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>638.7846593016874</v>
+        <v>765.6941601098698</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>730.5286846289789</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>546.1642923310651</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>187.9272794379313</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.1422351241104</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10278,7 +10278,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>334.0575392195774</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>147.9562599905857</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>573.3065902784567</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>724.8994938583538</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>744.1810529331021</v>
+        <v>135.1918150294665</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>211.6215277656198</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,7 +10509,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>166.1253459379615</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>69.24745529541322</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.6215277656197</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.02108961624873</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>108.2647271143053</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>402.8250547517289</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.1422351241106</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.08921242755371</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>22.12662785312088</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>402.8250547517289</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>249.9200876203681</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.6215277656197</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>75.15490920762659</v>
       </c>
       <c r="M43" t="n">
-        <v>402.8250547517288</v>
+        <v>402.825054751729</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8637139027988</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>187.9272794379311</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>318.1422351241102</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3678052820416</v>
@@ -23314,7 +23314,7 @@
         <v>210.2770796227834</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>382.1513311411126</v>
       </c>
       <c r="Y11" t="n">
-        <v>125.6899696907864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.114289464690444</v>
       </c>
       <c r="H13" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>151.6086389221917</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>175.4036943284498</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>115.7579013926367</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>11.65234522302885</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>102.5620706165252</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>81.60831250523916</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>384.3980566878151</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7296254640092</v>
+        <v>33.37561034628598</v>
       </c>
       <c r="H19" t="n">
         <v>134.669673945858</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>47.47396038069482</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>392.4451384924996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>210.2770796227834</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>230.6536061387457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>29.46248884562303</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7296254640092</v>
       </c>
       <c r="H22" t="n">
-        <v>134.669673945858</v>
+        <v>23.25390923278856</v>
       </c>
       <c r="I22" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>176.9593692486878</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>275.145931902475</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>50.04060070226785</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>27.47203863492505</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>176.9593692486871</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>109.4329639187462</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.38813069754224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>104.1311495055338</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>21.99736759678029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>127.3758520784925</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3678052820416</v>
+        <v>134.4054526203005</v>
       </c>
       <c r="H35" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>210.2770796227834</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.6416812281211</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>163.7296254640092</v>
       </c>
       <c r="H37" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>148.0876612537166</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>330.3952994292509</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>140.2980631960951</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.2770796227834</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>96.855356915328</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>64.36376270261925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H40" t="n">
         <v>134.669673945858</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>265.3752282479666</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3678052820416</v>
+        <v>101.4260522859952</v>
       </c>
       <c r="H41" t="n">
         <v>275.145931902475</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U41" t="n">
         <v>255.6171309891995</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>112.9310886758037</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>138.9589955347413</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,10 +25876,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>168.952457615936</v>
       </c>
       <c r="G44" t="n">
-        <v>26.85832642824306</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H44" t="n">
         <v>275.145931902475</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>9.237828015345457</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.2110085144546</v>
+        <v>201.6977596326334</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318564.363333454</v>
+        <v>318564.3633334541</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>318564.363333454</v>
+        <v>318564.3633334541</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>318564.363333454</v>
+        <v>318564.3633334542</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>555729.0200210823</v>
+        <v>555729.0200210824</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>555729.0200210823</v>
+        <v>555729.0200210824</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>555729.0200210823</v>
+        <v>555729.0200210824</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555729.0200210823</v>
+        <v>555729.0200210824</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>318564.363333454</v>
+        <v>318564.3633334541</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>318564.3633334541</v>
+        <v>318564.363333454</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487693.629700738</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="C2" t="n">
-        <v>487693.6297007378</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="D2" t="n">
-        <v>487693.629700738</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="E2" t="n">
-        <v>283426.8233895685</v>
+        <v>283426.8233895684</v>
       </c>
       <c r="F2" t="n">
         <v>283426.8233895684</v>
@@ -26334,16 +26334,16 @@
         <v>283426.8233895684</v>
       </c>
       <c r="I2" t="n">
-        <v>437533.2574282181</v>
+        <v>437533.2574282183</v>
       </c>
       <c r="J2" t="n">
-        <v>437533.257428218</v>
+        <v>437533.2574282182</v>
       </c>
       <c r="K2" t="n">
-        <v>437533.2574282181</v>
+        <v>437533.2574282182</v>
       </c>
       <c r="L2" t="n">
-        <v>437533.2574282179</v>
+        <v>437533.2574282183</v>
       </c>
       <c r="M2" t="n">
         <v>283426.8233895684</v>
@@ -26355,7 +26355,7 @@
         <v>283426.8233895684</v>
       </c>
       <c r="P2" t="n">
-        <v>283426.8233895685</v>
+        <v>283426.8233895684</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
       </c>
       <c r="E4" t="n">
-        <v>18896.7244154622</v>
+        <v>18896.72441546221</v>
       </c>
       <c r="F4" t="n">
         <v>18896.7244154622</v>
       </c>
       <c r="G4" t="n">
-        <v>18896.7244154622</v>
+        <v>18896.72441546223</v>
       </c>
       <c r="H4" t="n">
-        <v>18896.72441546221</v>
+        <v>18896.72441546223</v>
       </c>
       <c r="I4" t="n">
-        <v>93167.33697782722</v>
+        <v>93167.33697782728</v>
       </c>
       <c r="J4" t="n">
-        <v>93167.33697782723</v>
+        <v>93167.33697782728</v>
       </c>
       <c r="K4" t="n">
-        <v>93167.33697782725</v>
+        <v>93167.33697782728</v>
       </c>
       <c r="L4" t="n">
-        <v>93167.33697782725</v>
+        <v>93167.33697782729</v>
       </c>
       <c r="M4" t="n">
         <v>18896.7244154622</v>
       </c>
       <c r="N4" t="n">
+        <v>18896.72441546219</v>
+      </c>
+      <c r="O4" t="n">
         <v>18896.7244154622</v>
       </c>
-      <c r="O4" t="n">
-        <v>18896.72441546219</v>
-      </c>
       <c r="P4" t="n">
-        <v>18896.7244154622</v>
+        <v>18896.72441546221</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>41815.40098331764</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41815.40098331764</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41815.40098331764</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41815.40098331764</v>
+      </c>
+      <c r="I5" t="n">
+        <v>73176.46387987689</v>
+      </c>
+      <c r="J5" t="n">
+        <v>73176.46387987689</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73176.46387987689</v>
+      </c>
+      <c r="L5" t="n">
+        <v>73176.46387987689</v>
+      </c>
+      <c r="M5" t="n">
         <v>41815.40098331763</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
         <v>41815.40098331763</v>
       </c>
-      <c r="G5" t="n">
+      <c r="O5" t="n">
         <v>41815.40098331763</v>
-      </c>
-      <c r="H5" t="n">
-        <v>41815.40098331763</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73176.46387987686</v>
-      </c>
-      <c r="J5" t="n">
-        <v>73176.46387987686</v>
-      </c>
-      <c r="K5" t="n">
-        <v>73176.46387987686</v>
-      </c>
-      <c r="L5" t="n">
-        <v>73176.46387987686</v>
-      </c>
-      <c r="M5" t="n">
-        <v>41815.40098331762</v>
-      </c>
-      <c r="N5" t="n">
-        <v>41815.40098331762</v>
-      </c>
-      <c r="O5" t="n">
-        <v>41815.40098331762</v>
       </c>
       <c r="P5" t="n">
         <v>41815.40098331764</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133290.5028830772</v>
+        <v>133268.7892415808</v>
       </c>
       <c r="C6" t="n">
-        <v>133290.5028830771</v>
+        <v>133268.7892415808</v>
       </c>
       <c r="D6" t="n">
-        <v>133290.5028830772</v>
+        <v>133268.7892415808</v>
       </c>
       <c r="E6" t="n">
-        <v>-316571.2773220278</v>
+        <v>-317193.7756879688</v>
       </c>
       <c r="F6" t="n">
-        <v>222714.6979907886</v>
+        <v>222092.1996248477</v>
       </c>
       <c r="G6" t="n">
-        <v>222714.6979907885</v>
+        <v>222092.1996248476</v>
       </c>
       <c r="H6" t="n">
-        <v>222714.6979907885</v>
+        <v>222092.1996248476</v>
       </c>
       <c r="I6" t="n">
-        <v>134025.5551475547</v>
+        <v>133856.3109993745</v>
       </c>
       <c r="J6" t="n">
-        <v>271189.456570514</v>
+        <v>271020.2124223338</v>
       </c>
       <c r="K6" t="n">
-        <v>271189.456570514</v>
+        <v>271020.2124223338</v>
       </c>
       <c r="L6" t="n">
-        <v>271189.4565705138</v>
+        <v>271020.2124223339</v>
       </c>
       <c r="M6" t="n">
-        <v>222714.6979907886</v>
+        <v>222092.1996248476</v>
       </c>
       <c r="N6" t="n">
-        <v>222714.6979907886</v>
+        <v>222092.1996248477</v>
       </c>
       <c r="O6" t="n">
-        <v>222714.6979907886</v>
+        <v>222092.1996248477</v>
       </c>
       <c r="P6" t="n">
-        <v>222714.6979907886</v>
+        <v>222092.1996248476</v>
       </c>
     </row>
   </sheetData>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>515.8069555355139</v>
+      </c>
+      <c r="F4" t="n">
+        <v>515.8069555355139</v>
+      </c>
+      <c r="G4" t="n">
+        <v>515.8069555355139</v>
+      </c>
+      <c r="H4" t="n">
+        <v>515.8069555355139</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1031.613911071028</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1031.613911071028</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1031.613911071028</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1031.613911071028</v>
+      </c>
+      <c r="M4" t="n">
         <v>515.8069555355138</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>515.8069555355138</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>515.8069555355138</v>
-      </c>
-      <c r="H4" t="n">
-        <v>515.8069555355138</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1031.613911071027</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1031.613911071027</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1031.613911071027</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1031.613911071027</v>
-      </c>
-      <c r="M4" t="n">
-        <v>515.8069555355137</v>
-      </c>
-      <c r="N4" t="n">
-        <v>515.8069555355137</v>
-      </c>
-      <c r="O4" t="n">
-        <v>515.8069555355137</v>
       </c>
       <c r="P4" t="n">
         <v>515.8069555355139</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>76.84296941552533</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7622687967765</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L12" t="n">
         <v>201.4515079650912</v>
       </c>
       <c r="M12" t="n">
-        <v>515.8069555355138</v>
+        <v>238.2616716566319</v>
       </c>
       <c r="N12" t="n">
         <v>246.9328044879843</v>
@@ -35509,7 +35509,7 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.9229702262614</v>
+        <v>427.0652053503719</v>
       </c>
       <c r="R12" t="n">
         <v>40.37053307086879</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K13" t="n">
         <v>329.286837714494</v>
       </c>
       <c r="L13" t="n">
-        <v>486.8404317482685</v>
+        <v>334.7070619525963</v>
       </c>
       <c r="M13" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="N13" t="n">
-        <v>440.2140814395072</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O13" t="n">
         <v>99.7327636016805</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.34196065395248</v>
+        <v>42.43117308150619</v>
       </c>
       <c r="J15" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K15" t="n">
         <v>144.165317551548</v>
       </c>
       <c r="L15" t="n">
-        <v>515.8069555355138</v>
+        <v>201.4515079650912</v>
       </c>
       <c r="M15" t="n">
         <v>238.2616716566319</v>
@@ -35743,7 +35743,7 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P15" t="n">
-        <v>178.9871128804876</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q15" t="n">
         <v>108.9229702262614</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K16" t="n">
         <v>329.286837714494</v>
       </c>
       <c r="L16" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M16" t="n">
-        <v>515.8069555355138</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="N16" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O16" t="n">
-        <v>174.887672809307</v>
+        <v>275.4591333132831</v>
       </c>
       <c r="P16" t="n">
         <v>82.20974973021747</v>
@@ -35907,7 +35907,7 @@
         <v>172.0632193728914</v>
       </c>
       <c r="R17" t="n">
-        <v>86.06869441248989</v>
+        <v>86.06869441249076</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J18" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K18" t="n">
         <v>144.165317551548</v>
       </c>
       <c r="L18" t="n">
-        <v>515.8069555355138</v>
+        <v>201.4515079650912</v>
       </c>
       <c r="M18" t="n">
         <v>238.2616716566319</v>
       </c>
       <c r="N18" t="n">
-        <v>250.7195920416721</v>
+        <v>246.9328044879843</v>
       </c>
       <c r="O18" t="n">
         <v>222.2480852614988</v>
@@ -35986,7 +35986,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R18" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K19" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L19" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M19" t="n">
-        <v>515.8069555355138</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N19" t="n">
-        <v>141.1411115430997</v>
+        <v>513.6386465400071</v>
       </c>
       <c r="O19" t="n">
-        <v>481.2502628978454</v>
+        <v>350.4244485577374</v>
       </c>
       <c r="P19" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021747</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J20" t="n">
-        <v>134.2053002425976</v>
+        <v>134.2053002425986</v>
       </c>
       <c r="K20" t="n">
         <v>209.4672480648086</v>
@@ -36135,7 +36135,7 @@
         <v>306.7144172126735</v>
       </c>
       <c r="O20" t="n">
-        <v>287.4328581379256</v>
+        <v>287.4328581379252</v>
       </c>
       <c r="P20" t="n">
         <v>239.6542513562369</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J21" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K21" t="n">
         <v>144.165317551548</v>
@@ -36217,13 +36217,13 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P21" t="n">
-        <v>493.3425604509104</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q21" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R21" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K22" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L22" t="n">
         <v>486.8404317482685</v>
       </c>
       <c r="M22" t="n">
-        <v>165.1720763474096</v>
+        <v>515.8069555355139</v>
       </c>
       <c r="N22" t="n">
-        <v>111.5851891239666</v>
+        <v>361.5052767443349</v>
       </c>
       <c r="O22" t="n">
-        <v>481.2502628978454</v>
+        <v>99.7327636016805</v>
       </c>
       <c r="P22" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021747</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>134.2053002425976</v>
       </c>
       <c r="K23" t="n">
-        <v>209.4672480648086</v>
+        <v>967.9675134813341</v>
       </c>
       <c r="L23" t="n">
-        <v>265.919750961158</v>
+        <v>805.6255696814441</v>
       </c>
       <c r="M23" t="n">
-        <v>1031.613911071027</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N23" t="n">
-        <v>865.5638925323382</v>
+        <v>306.7144172126735</v>
       </c>
       <c r="O23" t="n">
-        <v>287.4328581379252</v>
+        <v>1031.613911071028</v>
       </c>
       <c r="P23" t="n">
-        <v>992.6632284775062</v>
+        <v>239.6542513562369</v>
       </c>
       <c r="Q23" t="n">
         <v>172.0632193728914</v>
@@ -36436,7 +36436,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J24" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K24" t="n">
         <v>144.165317551548</v>
@@ -36457,10 +36457,10 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q24" t="n">
-        <v>427.0652053503716</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R24" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842227</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K25" t="n">
-        <v>245.6317704059686</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L25" t="n">
         <v>486.8404317482685</v>
@@ -36536,7 +36536,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q25" t="n">
-        <v>200.6960355777093</v>
+        <v>195.7497729643567</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>134.2053002425976</v>
       </c>
       <c r="K26" t="n">
-        <v>209.4672480648086</v>
+        <v>967.9675134813341</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.613911071027</v>
+        <v>265.919750961158</v>
       </c>
       <c r="M26" t="n">
-        <v>852.8787095437383</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N26" t="n">
-        <v>1031.613911071027</v>
+        <v>306.7144172126735</v>
       </c>
       <c r="O26" t="n">
         <v>287.4328581379252</v>
       </c>
       <c r="P26" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775062</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170682</v>
       </c>
       <c r="R26" t="n">
-        <v>86.06869441248989</v>
+        <v>120.1295108004321</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J27" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K27" t="n">
-        <v>462.3075526756585</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L27" t="n">
         <v>201.4515079650912</v>
@@ -36697,7 +36697,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R27" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842227</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K28" t="n">
         <v>329.286837714494</v>
@@ -36761,7 +36761,7 @@
         <v>486.8404317482685</v>
       </c>
       <c r="M28" t="n">
-        <v>447.0394400033622</v>
+        <v>530.6945073118877</v>
       </c>
       <c r="N28" t="n">
         <v>513.6386465400071</v>
@@ -36773,7 +36773,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q28" t="n">
-        <v>200.6960355777093</v>
+        <v>195.7497729643567</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>209.4672480648086</v>
       </c>
       <c r="L29" t="n">
-        <v>904.7044102628454</v>
+        <v>1031.613911071028</v>
       </c>
       <c r="M29" t="n">
-        <v>301.085226442049</v>
+        <v>1031.613911071028</v>
       </c>
       <c r="N29" t="n">
-        <v>306.7144172126735</v>
+        <v>852.8787095437385</v>
       </c>
       <c r="O29" t="n">
         <v>287.4328581379252</v>
       </c>
       <c r="P29" t="n">
-        <v>992.6632284775062</v>
+        <v>239.6542513562369</v>
       </c>
       <c r="Q29" t="n">
-        <v>668.8802975170682</v>
+        <v>172.0632193728914</v>
       </c>
       <c r="R29" t="n">
-        <v>239.8451169152688</v>
+        <v>86.06869441248989</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J30" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534566</v>
       </c>
       <c r="K30" t="n">
         <v>144.165317551548</v>
@@ -36928,13 +36928,13 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P30" t="n">
-        <v>493.3425604509101</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q30" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R30" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K31" t="n">
         <v>329.286837714494</v>
@@ -36998,7 +36998,7 @@
         <v>486.8404317482685</v>
       </c>
       <c r="M31" t="n">
-        <v>447.0394400033622</v>
+        <v>530.6945073118877</v>
       </c>
       <c r="N31" t="n">
         <v>513.6386465400071</v>
@@ -37010,7 +37010,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q31" t="n">
-        <v>200.6960355777093</v>
+        <v>195.7497729643567</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J32" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452503</v>
       </c>
       <c r="K32" t="n">
-        <v>209.4672480648086</v>
+        <v>967.9675134813341</v>
       </c>
       <c r="L32" t="n">
-        <v>839.2263412396147</v>
+        <v>265.919750961158</v>
       </c>
       <c r="M32" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N32" t="n">
-        <v>1031.613911071027</v>
+        <v>306.7144172126735</v>
       </c>
       <c r="O32" t="n">
-        <v>1031.613911071027</v>
+        <v>422.6246731673917</v>
       </c>
       <c r="P32" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775062</v>
       </c>
       <c r="Q32" t="n">
         <v>172.0632193728914</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J33" t="n">
         <v>76.84296941552533</v>
@@ -37165,10 +37165,10 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P33" t="n">
-        <v>386.8218530924196</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.9229702262614</v>
+        <v>296.8502496641926</v>
       </c>
       <c r="R33" t="n">
         <v>146.8912404293595</v>
@@ -37229,7 +37229,7 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K34" t="n">
-        <v>245.6317704059686</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L34" t="n">
         <v>486.8404317482685</v>
@@ -37247,7 +37247,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q34" t="n">
-        <v>200.6960355777093</v>
+        <v>117.0409682691841</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>265.919750961158</v>
       </c>
       <c r="M35" t="n">
-        <v>301.0852264420489</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N35" t="n">
         <v>306.7144172126735</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J36" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K36" t="n">
         <v>144.165317551548</v>
@@ -37405,7 +37405,7 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q36" t="n">
-        <v>320.5444979918811</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R36" t="n">
         <v>146.8912404293595</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>40.50280432646061</v>
+        <v>74.52389394270934</v>
       </c>
       <c r="K37" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L37" t="n">
-        <v>214.9143572553366</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M37" t="n">
-        <v>515.8069555355137</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N37" t="n">
         <v>111.5851891239666</v>
@@ -37484,7 +37484,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q37" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J38" t="n">
-        <v>134.2053002425976</v>
+        <v>134.2053002425981</v>
       </c>
       <c r="K38" t="n">
-        <v>209.4672480648087</v>
+        <v>209.4672480648086</v>
       </c>
       <c r="L38" t="n">
         <v>265.919750961158</v>
@@ -37621,7 +37621,7 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J39" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K39" t="n">
         <v>144.165317551548</v>
@@ -37639,13 +37639,13 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P39" t="n">
-        <v>493.3425604509104</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q39" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R39" t="n">
-        <v>40.37053307086879</v>
+        <v>63.4597454984225</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K40" t="n">
-        <v>101.633052321128</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L40" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M40" t="n">
-        <v>515.8069555355137</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N40" t="n">
-        <v>513.6386465400071</v>
+        <v>361.5052767443347</v>
       </c>
       <c r="O40" t="n">
-        <v>481.2502628978454</v>
+        <v>99.7327636016805</v>
       </c>
       <c r="P40" t="n">
         <v>82.20974973021747</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J42" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K42" t="n">
         <v>144.165317551548</v>
@@ -37879,7 +37879,7 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q42" t="n">
-        <v>320.5444979918811</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R42" t="n">
         <v>146.8912404293595</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K43" t="n">
         <v>329.286837714494</v>
       </c>
       <c r="L43" t="n">
-        <v>106.6496301410312</v>
+        <v>181.8045393486578</v>
       </c>
       <c r="M43" t="n">
-        <v>515.8069555355137</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N43" t="n">
         <v>513.6386465400071</v>
       </c>
       <c r="O43" t="n">
-        <v>253.5964775044793</v>
+        <v>99.7327636016805</v>
       </c>
       <c r="P43" t="n">
         <v>82.20974973021747</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J45" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K45" t="n">
         <v>144.165317551548</v>
@@ -38116,10 +38116,10 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q45" t="n">
-        <v>427.0652053503716</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R45" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
